--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/25_Denizli_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/25_Denizli_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E662E11F-CBAB-46C6-A3E0-BC93CFEEE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61C1BF3-775B-4794-83C6-D0962D66478C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{6CC8450D-9C57-41C4-ACAE-A55D5AF87939}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{137678A7-98C2-436D-B16D-6499E1D9F77B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7953722B-3788-4BF9-86E8-8C3C33116731}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3D779940-07FD-4AED-B5C9-D2FE1549B2AA}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{345EF0DB-A002-4538-8568-6CA6A949F3AD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2D7FA415-3BBD-44C1-B98D-C6CED940AE4D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{48F09FB8-B603-4B6F-84EC-ADCFCB4A84A5}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{31088EF5-5D2D-4B0B-B887-C4CED24209A2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{909AB8DE-7C90-469E-AFF9-57335C5332B4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8F86BD05-9309-46BE-A400-7C8A84E624BD}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2732B700-F81D-459F-B2C4-4934439A202E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{66C1C5BC-CCB1-41B3-9A65-6B6DFAD16E40}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{369798E5-11F6-4FAA-B97D-5F7963E2E217}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A69948CF-A3A2-4F1A-9CB0-05B878236CC2}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9F106397-5121-41D8-8C09-38C56BEC0797}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{61E5F9DD-8993-4826-85F5-B623747DD7A0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104D0036-88B9-40D9-B66D-3CF77FC4332A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA83A1-DFFC-46FD-B44A-03109BB9834C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD2BA87-5DA7-4C6B-AE46-008D773141E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122ADBC3-04AB-4CFB-BB26-580C7105C7C8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3862,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB278D-413A-449A-88DF-1B31D2015C2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFF1AB-C5CE-45AE-BD8C-449F801FA341}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5125,7 +5125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD612D-7E23-4EEE-8253-7EE79E77978D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAEB4F6-97C0-4028-8422-827D7565B9F5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6380,7 +6380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7620AC57-C261-444C-A78E-39C2B0DC527D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58AE1A-CB23-4B52-89CD-93D543D7832E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7685,7 +7685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB922A85-528F-4486-9F59-0EBE7AE9C7D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF597564-8859-4DE3-AC8F-61C71AC5D9A3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8986,7 +8986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16EEA6A-BBED-44D1-8C67-59DD2E201365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36B4D8-451D-4BA7-962B-03160FFE4758}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10287,7 +10287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EF9273-D257-4288-80DA-707027E148DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B93B508-95CA-4D0E-AC0E-EB4D47210B0B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11588,7 +11588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FDE67B-97C2-4AD3-9E44-296359706665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72CDDFE-0C93-4B08-AE76-66EB04F24637}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12889,7 +12889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092C6124-AA3A-4441-AA14-C9A73C168230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A33D1-277F-4FA3-A789-C6590D2812E2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14176,7 +14176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8765ABCC-F38E-4BD1-BD8F-0711762436A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0E256-9E53-40A2-81CD-84C0CC1BDDF1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15459,7 +15459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0619A21-6957-41AA-BBC2-173A4A455113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16FCF2-2D21-451B-A301-7121CD70B653}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
